--- a/Projetvelo/Planning.xlsx
+++ b/Projetvelo/Planning.xlsx
@@ -40,7 +40,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-40C]d\-mmm;@"/>
+    <numFmt numFmtId="164" formatCode="[$-40C]d\-mmm;@"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -142,7 +142,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="16" fontId="3" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
@@ -151,11 +151,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -443,8 +443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B11:W48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -600,7 +600,7 @@
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B27" s="4">
-        <v>43823</v>
+        <v>43824</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>0</v>
@@ -608,7 +608,7 @@
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B28" s="4">
-        <v>43824</v>
+        <v>43825</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>0</v>
@@ -616,7 +616,7 @@
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B29" s="4">
-        <v>43825</v>
+        <v>43826</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>0</v>
@@ -624,7 +624,7 @@
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B30" s="4">
-        <v>43826</v>
+        <v>43829</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>0</v>
@@ -632,15 +632,15 @@
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B31" s="4">
-        <v>43829</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>0</v>
+        <v>43467</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B32" s="4">
-        <v>43830</v>
+        <v>43468</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>0</v>
@@ -648,15 +648,15 @@
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" s="4">
-        <v>43466</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>2</v>
+        <v>43471</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" s="4">
-        <v>43467</v>
+        <v>43472</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>0</v>
@@ -664,7 +664,7 @@
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" s="4">
-        <v>43468</v>
+        <v>43473</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>0</v>
@@ -672,7 +672,7 @@
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B36" s="4">
-        <v>43471</v>
+        <v>43474</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>0</v>
@@ -680,7 +680,7 @@
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B37" s="4">
-        <v>43472</v>
+        <v>43475</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>0</v>
@@ -688,15 +688,15 @@
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B38" s="4">
-        <v>43473</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>0</v>
+        <v>43478</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B39" s="4">
-        <v>43474</v>
+        <v>43479</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>0</v>
@@ -704,7 +704,7 @@
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B40" s="4">
-        <v>43475</v>
+        <v>43480</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>0</v>
@@ -712,15 +712,15 @@
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B41" s="4">
-        <v>43478</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>1</v>
+        <v>43481</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B42" s="4">
-        <v>43479</v>
+        <v>43482</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>0</v>
@@ -728,7 +728,7 @@
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B43" s="4">
-        <v>43480</v>
+        <v>43485</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>0</v>
@@ -736,7 +736,7 @@
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B44" s="4">
-        <v>43481</v>
+        <v>43486</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>0</v>
@@ -744,7 +744,7 @@
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B45" s="4">
-        <v>43482</v>
+        <v>43487</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>0</v>
@@ -752,7 +752,7 @@
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B46" s="4">
-        <v>43485</v>
+        <v>43488</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>0</v>

--- a/Projetvelo/Planning.xlsx
+++ b/Projetvelo/Planning.xlsx
@@ -39,9 +39,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="[$-40C]d\-mmm;@"/>
-  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -107,7 +104,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -130,6 +127,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -138,24 +153,29 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="16" fontId="3" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -441,24 +461,119 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B11:W48"/>
+  <dimension ref="B2:W48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36:E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13.140625" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="2" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B2" s="3">
+        <v>43802</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="7"/>
+    </row>
+    <row r="3" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B3" s="3">
+        <v>43803</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="6"/>
+    </row>
+    <row r="4" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B4" s="3">
+        <v>43804</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B5" s="3">
+        <v>43805</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="6"/>
+    </row>
+    <row r="6" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B6" s="3">
+        <v>43808</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="6"/>
+    </row>
+    <row r="7" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B7" s="3">
+        <v>43809</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="6"/>
+    </row>
+    <row r="8" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B8" s="3">
+        <v>43810</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="6"/>
+    </row>
+    <row r="9" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B9" s="3">
+        <v>43811</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B10" s="3">
+        <v>43812</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="6"/>
+    </row>
     <row r="11" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B11" s="3"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+      <c r="B11" s="3">
+        <v>43815</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" s="6"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -479,289 +594,331 @@
       <c r="W11" s="2"/>
     </row>
     <row r="12" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B12" s="4">
-        <v>43802</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>0</v>
-      </c>
+      <c r="B12" s="3">
+        <v>43816</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" s="6"/>
     </row>
     <row r="13" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B13" s="4">
-        <v>43803</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>0</v>
-      </c>
+      <c r="B13" s="3">
+        <v>43817</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" s="6"/>
     </row>
     <row r="14" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B14" s="4">
-        <v>43804</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>0</v>
-      </c>
+      <c r="B14" s="3">
+        <v>43818</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" s="6"/>
     </row>
     <row r="15" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B15" s="4">
-        <v>43805</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>0</v>
-      </c>
+      <c r="B15" s="3">
+        <v>43819</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" s="6"/>
     </row>
     <row r="16" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B16" s="4">
-        <v>43808</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="4">
-        <v>43809</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="4">
-        <v>43810</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="4">
-        <v>43811</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20" s="4">
-        <v>43812</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B21" s="4">
-        <v>43815</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B22" s="4">
-        <v>43816</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B23" s="4">
-        <v>43817</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B24" s="4">
-        <v>43818</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B25" s="4">
-        <v>43819</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B26" s="4">
+      <c r="B16" s="3">
         <v>43822</v>
       </c>
-      <c r="C26" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B27" s="4">
+      <c r="C16" s="4"/>
+      <c r="D16" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E16" s="6"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="3">
         <v>43824</v>
       </c>
-      <c r="C27" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B28" s="4">
+      <c r="C17" s="4"/>
+      <c r="D17" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E17" s="6"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="3">
         <v>43825</v>
       </c>
-      <c r="C28" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B29" s="4">
+      <c r="C18" s="4"/>
+      <c r="D18" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E18" s="6"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="3">
         <v>43826</v>
       </c>
-      <c r="C29" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B30" s="4">
+      <c r="C19" s="4"/>
+      <c r="D19" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E19" s="6"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="3">
         <v>43829</v>
       </c>
-      <c r="C30" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B31" s="4">
+      <c r="C20" s="4"/>
+      <c r="D20" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E20" s="6"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="3">
         <v>43467</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C21" s="4"/>
+      <c r="D21" s="8" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B32" s="4">
+      <c r="E21" s="8"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="3">
         <v>43468</v>
       </c>
-      <c r="C32" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B33" s="4">
+      <c r="C22" s="4"/>
+      <c r="D22" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E22" s="6"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="3">
         <v>43471</v>
       </c>
-      <c r="C33" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B34" s="4">
+      <c r="C23" s="4"/>
+      <c r="D23" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E23" s="6"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24" s="3">
         <v>43472</v>
       </c>
-      <c r="C34" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B35" s="4">
+      <c r="C24" s="4"/>
+      <c r="D24" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E24" s="6"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B25" s="3">
         <v>43473</v>
       </c>
-      <c r="C35" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B36" s="4">
+      <c r="C25" s="4"/>
+      <c r="D25" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E25" s="6"/>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B26" s="3">
         <v>43474</v>
       </c>
-      <c r="C36" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B37" s="4">
+      <c r="C26" s="4"/>
+      <c r="D26" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E26" s="6"/>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B27" s="3">
         <v>43475</v>
       </c>
-      <c r="C37" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B38" s="4">
+      <c r="C27" s="4"/>
+      <c r="D27" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E27" s="6"/>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B28" s="3">
         <v>43478</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="C28" s="5"/>
+      <c r="D28" s="9" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B39" s="4">
+      <c r="E28" s="10"/>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B29" s="3">
         <v>43479</v>
       </c>
-      <c r="C39" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B40" s="4">
+      <c r="C29" s="4"/>
+      <c r="D29" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E29" s="6"/>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B30" s="3">
         <v>43480</v>
       </c>
-      <c r="C40" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B41" s="4">
+      <c r="C30" s="4"/>
+      <c r="D30" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E30" s="6"/>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B31" s="3">
         <v>43481</v>
       </c>
-      <c r="C41" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B42" s="4">
+      <c r="C31" s="4"/>
+      <c r="D31" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E31" s="6"/>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B32" s="3">
         <v>43482</v>
       </c>
-      <c r="C42" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B43" s="4">
+      <c r="C32" s="4"/>
+      <c r="D32" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E32" s="6"/>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B33" s="3">
         <v>43485</v>
       </c>
-      <c r="C43" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B44" s="4">
+      <c r="C33" s="4"/>
+      <c r="D33" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E33" s="6"/>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B34" s="3">
         <v>43486</v>
       </c>
-      <c r="C44" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B45" s="4">
+      <c r="C34" s="4"/>
+      <c r="D34" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E34" s="6"/>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B35" s="3">
         <v>43487</v>
       </c>
-      <c r="C45" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B46" s="4">
+      <c r="C35" s="4"/>
+      <c r="D35" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E35" s="6"/>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B36" s="3">
         <v>43488</v>
       </c>
-      <c r="C46" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C36" s="4"/>
+      <c r="D36" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E36" s="6"/>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B48" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="70">
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/Projetvelo/Planning.xlsx
+++ b/Projetvelo/Planning.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="6">
   <si>
     <t>Développement</t>
   </si>
@@ -34,12 +34,21 @@
   <si>
     <t>Photographies</t>
   </si>
+  <si>
+    <t>Référencement</t>
+  </si>
+  <si>
+    <t>Remise du site</t>
+  </si>
+  <si>
+    <t>Hébergement</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -75,8 +84,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -103,8 +135,23 @@
         <fgColor rgb="FFFFCC99"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -145,30 +192,67 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="16" fontId="3" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
@@ -177,13 +261,36 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="16" fontId="3" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="7" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="5" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" xfId="6" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="8">
     <cellStyle name="Entrée" xfId="4" builtinId="20"/>
     <cellStyle name="Insatisfaisant" xfId="2" builtinId="27"/>
     <cellStyle name="Neutre" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="7" builtinId="10"/>
     <cellStyle name="Satisfaisant" xfId="1" builtinId="26"/>
+    <cellStyle name="Sortie" xfId="5" builtinId="21"/>
+    <cellStyle name="Vérification" xfId="6" builtinId="23"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -463,8 +570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:W48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36:E36"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -476,104 +583,104 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B2" s="3">
+      <c r="B2" s="6">
         <v>43802</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="8"/>
     </row>
     <row r="3" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B3" s="3">
+      <c r="B3" s="6">
         <v>43803</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="6"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3"/>
     </row>
     <row r="4" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B4" s="3">
+      <c r="B4" s="6">
         <v>43804</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="6"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3"/>
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B5" s="3">
+      <c r="B5" s="6">
         <v>43805</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" s="6"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3"/>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B6" s="3">
+      <c r="B6" s="6">
         <v>43808</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" s="6"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="12"/>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B7" s="3">
+      <c r="B7" s="6">
         <v>43809</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" s="6"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3"/>
     </row>
     <row r="8" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B8" s="3">
+      <c r="B8" s="6">
         <v>43810</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8" s="6"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3"/>
     </row>
     <row r="9" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B9" s="3">
+      <c r="B9" s="6">
         <v>43811</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E9" s="6"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3"/>
     </row>
     <row r="10" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B10" s="3">
+      <c r="B10" s="6">
         <v>43812</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E10" s="6"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3"/>
     </row>
     <row r="11" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B11" s="3">
+      <c r="B11" s="6">
         <v>43815</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E11" s="6"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" s="9"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -594,284 +701,299 @@
       <c r="W11" s="2"/>
     </row>
     <row r="12" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B12" s="3">
+      <c r="B12" s="6">
         <v>43816</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E12" s="6"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3"/>
     </row>
     <row r="13" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B13" s="3">
+      <c r="B13" s="6">
         <v>43817</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E13" s="6"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" s="3"/>
     </row>
     <row r="14" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B14" s="3">
+      <c r="B14" s="6">
         <v>43818</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E14" s="6"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3"/>
     </row>
     <row r="15" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B15" s="3">
+      <c r="B15" s="6">
         <v>43819</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E15" s="6"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3"/>
     </row>
     <row r="16" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B16" s="3">
+      <c r="B16" s="6">
         <v>43822</v>
       </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E16" s="6"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E16" s="3"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="3">
+      <c r="B17" s="6">
         <v>43824</v>
       </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E17" s="6"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E17" s="3"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="3">
+      <c r="B18" s="6">
         <v>43825</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E18" s="6"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E18" s="3"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="3">
+      <c r="B19" s="6">
         <v>43826</v>
       </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E19" s="6"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E19" s="3"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="3">
+      <c r="B20" s="6">
         <v>43829</v>
       </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E20" s="6"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E20" s="5"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="3">
+      <c r="B21" s="6">
         <v>43467</v>
       </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E21" s="8"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E21" s="3"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="3">
+      <c r="B22" s="6">
         <v>43468</v>
       </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E22" s="6"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="3">
+      <c r="B23" s="6">
         <v>43471</v>
       </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E23" s="6"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="3">
+      <c r="B24" s="6">
         <v>43472</v>
       </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E24" s="6"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="3">
+      <c r="B25" s="6">
         <v>43473</v>
       </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E25" s="6"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E25" s="3"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="3">
+      <c r="B26" s="6">
         <v>43474</v>
       </c>
-      <c r="C26" s="4"/>
-      <c r="D26" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E26" s="6"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="3">
+      <c r="B27" s="6">
         <v>43475</v>
       </c>
-      <c r="C27" s="4"/>
-      <c r="D27" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E27" s="6"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="3">
+      <c r="B28" s="6">
         <v>43478</v>
       </c>
-      <c r="C28" s="5"/>
-      <c r="D28" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="E28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E28" s="3"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="3">
+      <c r="B29" s="6">
         <v>43479</v>
       </c>
-      <c r="C29" s="4"/>
-      <c r="D29" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E29" s="6"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="3">
+      <c r="B30" s="6">
         <v>43480</v>
       </c>
-      <c r="C30" s="4"/>
-      <c r="D30" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E30" s="6"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E30" s="3"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="3">
+      <c r="B31" s="6">
         <v>43481</v>
       </c>
-      <c r="C31" s="4"/>
-      <c r="D31" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E31" s="6"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E31" s="11"/>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B32" s="3">
+      <c r="B32" s="6">
         <v>43482</v>
       </c>
-      <c r="C32" s="4"/>
-      <c r="D32" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E32" s="6"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B33" s="3">
+      <c r="B33" s="6">
         <v>43485</v>
       </c>
-      <c r="C33" s="4"/>
-      <c r="D33" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E33" s="6"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B34" s="3">
+      <c r="B34" s="6">
         <v>43486</v>
       </c>
-      <c r="C34" s="4"/>
-      <c r="D34" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E34" s="6"/>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B35" s="3">
+      <c r="C34" s="7"/>
+      <c r="D34" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E34" s="3"/>
+    </row>
+    <row r="35" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="6">
         <v>43487</v>
       </c>
-      <c r="C35" s="4"/>
-      <c r="D35" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E35" s="6"/>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B36" s="3">
+      <c r="C35" s="7"/>
+      <c r="D35" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E35" s="3"/>
+    </row>
+    <row r="36" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="6">
         <v>43488</v>
       </c>
-      <c r="C36" s="4"/>
-      <c r="D36" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E36" s="6"/>
-    </row>
+      <c r="C36" s="7"/>
+      <c r="D36" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E36" s="13"/>
+    </row>
+    <row r="37" spans="2:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="48" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B48" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="70">
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D21:E21"/>
     <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B15:C15"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B11:C11"/>
@@ -882,42 +1004,28 @@
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="D8:E8"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Projetvelo/Planning.xlsx
+++ b/Projetvelo/Planning.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="6">
   <si>
     <t>Développement</t>
   </si>
@@ -248,38 +248,50 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="3" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="3" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="7" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="5" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="5" xfId="6" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -570,8 +582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:W48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9:E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -579,108 +591,113 @@
     <col min="2" max="2" width="13.140625" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
     <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
     <col min="6" max="6" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B2" s="6">
+      <c r="B2" s="3">
         <v>43802</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="8"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="7"/>
     </row>
     <row r="3" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B3" s="6">
+      <c r="B3" s="3">
         <v>43803</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5"/>
     </row>
     <row r="4" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B4" s="6">
+      <c r="B4" s="3">
         <v>43804</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="3"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5"/>
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B5" s="6">
+      <c r="B5" s="3">
         <v>43805</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" s="3"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5"/>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B6" s="6">
+      <c r="B6" s="3">
         <v>43808</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="12" t="s">
+      <c r="C6" s="4"/>
+      <c r="D6" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="12"/>
+      <c r="E6" s="11" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B7" s="6">
+      <c r="B7" s="3">
         <v>43809</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" s="3"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="5"/>
     </row>
     <row r="8" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B8" s="6">
+      <c r="B8" s="3">
         <v>43810</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8" s="3"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="5"/>
     </row>
     <row r="9" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B9" s="6">
+      <c r="B9" s="3">
         <v>43811</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E9" s="3"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="5"/>
     </row>
     <row r="10" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B10" s="6">
+      <c r="B10" s="3">
         <v>43812</v>
       </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E10" s="3"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="5"/>
     </row>
     <row r="11" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B11" s="6">
+      <c r="B11" s="3">
         <v>43815</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="9" t="s">
+      <c r="C11" s="4"/>
+      <c r="D11" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E11" s="9"/>
+      <c r="E11" s="13" t="s">
+        <v>0</v>
+      </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -701,277 +718,295 @@
       <c r="W11" s="2"/>
     </row>
     <row r="12" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B12" s="6">
+      <c r="B12" s="3">
         <v>43816</v>
       </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E12" s="3"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" s="5"/>
     </row>
     <row r="13" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B13" s="6">
+      <c r="B13" s="3">
         <v>43817</v>
       </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E13" s="3"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" s="5"/>
     </row>
     <row r="14" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B14" s="6">
+      <c r="B14" s="3">
         <v>43818</v>
       </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" s="5"/>
     </row>
     <row r="15" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B15" s="6">
+      <c r="B15" s="3">
         <v>43819</v>
       </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E15" s="3"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" s="5"/>
     </row>
     <row r="16" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B16" s="6">
+      <c r="B16" s="3">
         <v>43822</v>
       </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E16" s="3"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E16" s="5"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="6">
+      <c r="B17" s="3">
         <v>43824</v>
       </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E17" s="3"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E17" s="5"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="6">
+      <c r="B18" s="3">
         <v>43825</v>
       </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E18" s="3"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E18" s="5"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="6">
+      <c r="B19" s="3">
         <v>43826</v>
       </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E19" s="3"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E19" s="5"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="6">
+      <c r="B20" s="3">
         <v>43829</v>
       </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="4" t="s">
+      <c r="C20" s="4"/>
+      <c r="D20" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E20" s="5"/>
+      <c r="E20" s="9"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="6">
+      <c r="B21" s="3">
         <v>43467</v>
       </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E21" s="3"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E21" s="5"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="6">
+      <c r="B22" s="3">
         <v>43468</v>
       </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E22" s="3"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E22" s="5"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="6">
+      <c r="B23" s="3">
         <v>43471</v>
       </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E23" s="3"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E23" s="5"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="6">
+      <c r="B24" s="3">
         <v>43472</v>
       </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E24" s="3"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E24" s="5"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="6">
+      <c r="B25" s="3">
         <v>43473</v>
       </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E25" s="3"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E25" s="5"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="6">
+      <c r="B26" s="3">
         <v>43474</v>
       </c>
-      <c r="C26" s="7"/>
-      <c r="D26" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E26" s="3"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E26" s="5"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="6">
+      <c r="B27" s="3">
         <v>43475</v>
       </c>
-      <c r="C27" s="7"/>
-      <c r="D27" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E27" s="3"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E27" s="5"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="6">
+      <c r="B28" s="3">
         <v>43478</v>
       </c>
-      <c r="C28" s="10"/>
-      <c r="D28" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E28" s="3"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E28" s="5"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="6">
+      <c r="B29" s="3">
         <v>43479</v>
       </c>
-      <c r="C29" s="7"/>
-      <c r="D29" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E29" s="3"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E29" s="5"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="6">
+      <c r="B30" s="3">
         <v>43480</v>
       </c>
-      <c r="C30" s="7"/>
-      <c r="D30" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E30" s="3"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E30" s="5"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="6">
+      <c r="B31" s="3">
         <v>43481</v>
       </c>
-      <c r="C31" s="7"/>
-      <c r="D31" s="11" t="s">
+      <c r="C31" s="4"/>
+      <c r="D31" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E31" s="11"/>
+      <c r="E31" s="15" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B32" s="6">
+      <c r="B32" s="3">
         <v>43482</v>
       </c>
-      <c r="C32" s="7"/>
-      <c r="D32" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E32" s="3"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E32" s="5"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B33" s="6">
+      <c r="B33" s="3">
         <v>43485</v>
       </c>
-      <c r="C33" s="7"/>
-      <c r="D33" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E33" s="3"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E33" s="5"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B34" s="6">
+      <c r="B34" s="3">
         <v>43486</v>
       </c>
-      <c r="C34" s="7"/>
-      <c r="D34" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E34" s="3"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E34" s="5"/>
     </row>
     <row r="35" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="6">
+      <c r="B35" s="3">
         <v>43487</v>
       </c>
-      <c r="C35" s="7"/>
-      <c r="D35" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E35" s="3"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E35" s="5"/>
     </row>
     <row r="36" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="6">
+      <c r="B36" s="3">
         <v>43488</v>
       </c>
-      <c r="C36" s="7"/>
-      <c r="D36" s="13" t="s">
+      <c r="C36" s="4"/>
+      <c r="D36" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E36" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E36" s="13"/>
     </row>
     <row r="37" spans="2:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="48" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B48" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="70">
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D11:E11"/>
+  <mergeCells count="66">
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="D24:E24"/>
@@ -987,45 +1022,27 @@
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Projetvelo/Planning.xlsx
+++ b/Projetvelo/Planning.xlsx
@@ -48,7 +48,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,13 +102,45 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -142,16 +174,11 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -208,21 +235,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -238,71 +250,64 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="16" fontId="3" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="16" fontId="8" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="7" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" xfId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="7">
     <cellStyle name="Entrée" xfId="4" builtinId="20"/>
     <cellStyle name="Insatisfaisant" xfId="2" builtinId="27"/>
     <cellStyle name="Neutre" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="7" builtinId="10"/>
+    <cellStyle name="Note" xfId="6" builtinId="10"/>
     <cellStyle name="Satisfaisant" xfId="1" builtinId="26"/>
     <cellStyle name="Sortie" xfId="5" builtinId="21"/>
-    <cellStyle name="Vérification" xfId="6" builtinId="23"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -583,7 +588,7 @@
   <dimension ref="B2:W48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -596,106 +601,106 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B2" s="3">
+      <c r="B2" s="4">
         <v>43802</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="7"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="8"/>
     </row>
     <row r="3" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B3" s="3">
+      <c r="B3" s="4">
         <v>43803</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="7"/>
     </row>
     <row r="4" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B4" s="3">
+      <c r="B4" s="4">
         <v>43804</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="7"/>
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B5" s="3">
+      <c r="B5" s="4">
         <v>43805</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7"/>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B6" s="3">
+      <c r="B6" s="4">
         <v>43808</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="10" t="s">
+      <c r="C6" s="5"/>
+      <c r="D6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="10" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B7" s="3">
+      <c r="B7" s="4">
         <v>43809</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="7"/>
     </row>
     <row r="8" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B8" s="3">
+      <c r="B8" s="4">
         <v>43810</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="7"/>
     </row>
     <row r="9" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B9" s="3">
+      <c r="B9" s="4">
         <v>43811</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="7"/>
     </row>
     <row r="10" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B10" s="3">
+      <c r="B10" s="4">
         <v>43812</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="7"/>
     </row>
     <row r="11" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B11" s="3">
+      <c r="B11" s="4">
         <v>43815</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="12" t="s">
+      <c r="C11" s="5"/>
+      <c r="D11" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="12" t="s">
         <v>0</v>
       </c>
       <c r="F11" s="2"/>
@@ -718,315 +723,277 @@
       <c r="W11" s="2"/>
     </row>
     <row r="12" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B12" s="3">
+      <c r="B12" s="4">
         <v>43816</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" s="7"/>
     </row>
     <row r="13" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B13" s="3">
+      <c r="B13" s="4">
         <v>43817</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" s="7"/>
     </row>
     <row r="14" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B14" s="3">
+      <c r="B14" s="4">
         <v>43818</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" s="7"/>
     </row>
     <row r="15" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B15" s="3">
+      <c r="B15" s="4">
         <v>43819</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" s="7"/>
     </row>
     <row r="16" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B16" s="3">
+      <c r="B16" s="4">
         <v>43822</v>
       </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E16" s="7"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="3">
+      <c r="B17" s="4">
         <v>43824</v>
       </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E17" s="7"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="3">
+      <c r="B18" s="4">
         <v>43825</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E18" s="7"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="3">
+      <c r="B19" s="4">
         <v>43826</v>
       </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E19" s="7"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="3">
+      <c r="B20" s="4">
         <v>43829</v>
       </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="8" t="s">
+      <c r="C20" s="5"/>
+      <c r="D20" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E20" s="9"/>
+      <c r="E20" s="14"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="3">
+      <c r="B21" s="4">
         <v>43467</v>
       </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E21" s="7"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="3">
+      <c r="B22" s="4">
         <v>43468</v>
       </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E22" s="7"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="3">
+      <c r="B23" s="4">
         <v>43471</v>
       </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E23" s="7"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="3">
+      <c r="B24" s="4">
         <v>43472</v>
       </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E24" s="7"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="3">
+      <c r="B25" s="4">
         <v>43473</v>
       </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E25" s="7"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="3">
+      <c r="B26" s="4">
         <v>43474</v>
       </c>
-      <c r="C26" s="4"/>
-      <c r="D26" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E26" s="7"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="3">
+      <c r="B27" s="4">
         <v>43475</v>
       </c>
-      <c r="C27" s="4"/>
-      <c r="D27" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E27" s="7"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="3">
+      <c r="B28" s="4">
         <v>43478</v>
       </c>
       <c r="C28" s="6"/>
-      <c r="D28" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E28" s="5"/>
+      <c r="D28" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E28" s="7"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="3">
+      <c r="B29" s="4">
         <v>43479</v>
       </c>
-      <c r="C29" s="4"/>
-      <c r="D29" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E29" s="7"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="3">
+      <c r="B30" s="4">
         <v>43480</v>
       </c>
-      <c r="C30" s="4"/>
-      <c r="D30" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E30" s="7"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="3">
+      <c r="B31" s="4">
         <v>43481</v>
       </c>
-      <c r="C31" s="4"/>
-      <c r="D31" s="14" t="s">
+      <c r="C31" s="5"/>
+      <c r="D31" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E31" s="15" t="s">
+      <c r="E31" s="16" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B32" s="3">
+      <c r="B32" s="4">
         <v>43482</v>
       </c>
-      <c r="C32" s="4"/>
-      <c r="D32" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E32" s="7"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B33" s="3">
+      <c r="B33" s="4">
         <v>43485</v>
       </c>
-      <c r="C33" s="4"/>
-      <c r="D33" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E33" s="7"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B34" s="3">
+      <c r="B34" s="4">
         <v>43486</v>
       </c>
-      <c r="C34" s="4"/>
-      <c r="D34" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E34" s="5"/>
-    </row>
-    <row r="35" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="3">
+      <c r="C34" s="5"/>
+      <c r="D34" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E34" s="7"/>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B35" s="4">
         <v>43487</v>
       </c>
-      <c r="C35" s="4"/>
-      <c r="D35" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E35" s="5"/>
-    </row>
-    <row r="36" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="3">
+      <c r="C35" s="5"/>
+      <c r="D35" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E35" s="7"/>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B36" s="4">
         <v>43488</v>
       </c>
-      <c r="C36" s="4"/>
-      <c r="D36" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="E36" s="16" t="s">
+      <c r="C36" s="5"/>
+      <c r="D36" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E36" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="2:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+    </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B48" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="66">
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B32:C32"/>
+  <mergeCells count="69">
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D37:E37"/>
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
@@ -1043,6 +1010,56 @@
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Projetvelo/Planning.xlsx
+++ b/Projetvelo/Planning.xlsx
@@ -263,17 +263,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="16" fontId="8" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -281,11 +272,23 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="16" fontId="8" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -293,10 +296,7 @@
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -588,7 +588,7 @@
   <dimension ref="B2:W48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="D2" sqref="D2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -601,106 +601,106 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B2" s="4">
+      <c r="B2" s="9">
         <v>43802</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="8"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="13"/>
     </row>
     <row r="3" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B3" s="4">
+      <c r="B3" s="9">
         <v>43803</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="7"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="11"/>
     </row>
     <row r="4" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B4" s="4">
+      <c r="B4" s="9">
         <v>43804</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="7"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="11"/>
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B5" s="4">
+      <c r="B5" s="9">
         <v>43805</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" s="7"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="11"/>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B6" s="4">
+      <c r="B6" s="9">
         <v>43808</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="9" t="s">
+      <c r="C6" s="10"/>
+      <c r="D6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B7" s="4">
+      <c r="B7" s="9">
         <v>43809</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" s="7"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="11"/>
     </row>
     <row r="8" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B8" s="4">
+      <c r="B8" s="9">
         <v>43810</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8" s="7"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="11"/>
     </row>
     <row r="9" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B9" s="4">
+      <c r="B9" s="9">
         <v>43811</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E9" s="7"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="11"/>
     </row>
     <row r="10" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B10" s="4">
+      <c r="B10" s="9">
         <v>43812</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E10" s="7"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="11"/>
     </row>
     <row r="11" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B11" s="4">
+      <c r="B11" s="9">
         <v>43815</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="11" t="s">
+      <c r="C11" s="10"/>
+      <c r="D11" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F11" s="2"/>
@@ -723,274 +723,327 @@
       <c r="W11" s="2"/>
     </row>
     <row r="12" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B12" s="4">
+      <c r="B12" s="9">
         <v>43816</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E12" s="7"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" s="11"/>
     </row>
     <row r="13" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B13" s="4">
+      <c r="B13" s="9">
         <v>43817</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E13" s="7"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" s="11"/>
     </row>
     <row r="14" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B14" s="4">
+      <c r="B14" s="9">
         <v>43818</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E14" s="7"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" s="11"/>
     </row>
     <row r="15" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B15" s="4">
+      <c r="B15" s="9">
         <v>43819</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E15" s="7"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" s="11"/>
     </row>
     <row r="16" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B16" s="4">
+      <c r="B16" s="9">
         <v>43822</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E16" s="7"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E16" s="11"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="4">
+      <c r="B17" s="9">
         <v>43824</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E17" s="7"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E17" s="11"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="4">
+      <c r="B18" s="9">
         <v>43825</v>
       </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E18" s="7"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E18" s="11"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="4">
+      <c r="B19" s="9">
         <v>43826</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E19" s="7"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E19" s="11"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="4">
+      <c r="B20" s="9">
         <v>43829</v>
       </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="13" t="s">
+      <c r="C20" s="10"/>
+      <c r="D20" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="E20" s="14"/>
+      <c r="E20" s="15"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="4">
+      <c r="B21" s="9">
         <v>43467</v>
       </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E21" s="7"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E21" s="11"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="4">
+      <c r="B22" s="9">
         <v>43468</v>
       </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E22" s="7"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E22" s="11"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="4">
+      <c r="B23" s="9">
         <v>43471</v>
       </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E23" s="7"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E23" s="11"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="4">
+      <c r="B24" s="9">
         <v>43472</v>
       </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E24" s="7"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E24" s="11"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="4">
+      <c r="B25" s="9">
         <v>43473</v>
       </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E25" s="7"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E25" s="11"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="4">
+      <c r="B26" s="9">
         <v>43474</v>
       </c>
-      <c r="C26" s="5"/>
-      <c r="D26" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E26" s="7"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E26" s="11"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="4">
+      <c r="B27" s="9">
         <v>43475</v>
       </c>
-      <c r="C27" s="5"/>
-      <c r="D27" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E27" s="7"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E27" s="11"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="4">
+      <c r="B28" s="9">
         <v>43478</v>
       </c>
-      <c r="C28" s="6"/>
-      <c r="D28" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E28" s="7"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E28" s="11"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="4">
+      <c r="B29" s="9">
         <v>43479</v>
       </c>
-      <c r="C29" s="5"/>
-      <c r="D29" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E29" s="7"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E29" s="11"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="4">
+      <c r="B30" s="9">
         <v>43480</v>
       </c>
-      <c r="C30" s="5"/>
-      <c r="D30" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E30" s="7"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E30" s="11"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="4">
+      <c r="B31" s="9">
         <v>43481</v>
       </c>
-      <c r="C31" s="5"/>
-      <c r="D31" s="15" t="s">
+      <c r="C31" s="10"/>
+      <c r="D31" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E31" s="16" t="s">
+      <c r="E31" s="7" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B32" s="4">
+      <c r="B32" s="9">
         <v>43482</v>
       </c>
-      <c r="C32" s="5"/>
-      <c r="D32" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E32" s="7"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E32" s="11"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B33" s="4">
+      <c r="B33" s="9">
         <v>43485</v>
       </c>
-      <c r="C33" s="5"/>
-      <c r="D33" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E33" s="7"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E33" s="11"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B34" s="4">
+      <c r="B34" s="9">
         <v>43486</v>
       </c>
-      <c r="C34" s="5"/>
-      <c r="D34" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E34" s="7"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E34" s="11"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B35" s="4">
+      <c r="B35" s="9">
         <v>43487</v>
       </c>
-      <c r="C35" s="5"/>
-      <c r="D35" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E35" s="7"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E35" s="11"/>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B36" s="4">
+      <c r="B36" s="9">
         <v>43488</v>
       </c>
-      <c r="C36" s="5"/>
-      <c r="D36" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="E36" s="9" t="s">
+      <c r="C36" s="10"/>
+      <c r="D36" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E36" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B48" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="69">
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B29:C29"/>
     <mergeCell ref="B37:C37"/>
     <mergeCell ref="B38:C38"/>
     <mergeCell ref="D37:E37"/>
@@ -1007,59 +1060,6 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Projetvelo/Planning.xlsx
+++ b/Projetvelo/Planning.xlsx
@@ -278,17 +278,11 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="16" fontId="8" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -296,9 +290,15 @@
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="8" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Entrée" xfId="4" builtinId="20"/>
@@ -588,7 +588,7 @@
   <dimension ref="B2:W48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:E2"/>
+      <selection activeCell="B26" sqref="B26:C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -601,50 +601,50 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B2" s="9">
+      <c r="B2" s="12">
         <v>43802</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="14"/>
     </row>
     <row r="3" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B3" s="9">
+      <c r="B3" s="12">
         <v>43803</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="11"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="9"/>
     </row>
     <row r="4" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B4" s="9">
+      <c r="B4" s="12">
         <v>43804</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="11"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="9"/>
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B5" s="9">
+      <c r="B5" s="12">
         <v>43805</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" s="11"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="9"/>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B6" s="9">
+      <c r="B6" s="12">
         <v>43808</v>
       </c>
-      <c r="C6" s="10"/>
+      <c r="C6" s="13"/>
       <c r="D6" s="4" t="s">
         <v>5</v>
       </c>
@@ -653,51 +653,51 @@
       </c>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B7" s="9">
+      <c r="B7" s="12">
         <v>43809</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" s="11"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="9"/>
     </row>
     <row r="8" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B8" s="9">
+      <c r="B8" s="12">
         <v>43810</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8" s="11"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="9"/>
     </row>
     <row r="9" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B9" s="9">
+      <c r="B9" s="12">
         <v>43811</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E9" s="11"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="9"/>
     </row>
     <row r="10" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B10" s="9">
+      <c r="B10" s="12">
         <v>43812</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E10" s="11"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="9"/>
     </row>
     <row r="11" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B11" s="9">
+      <c r="B11" s="12">
         <v>43815</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="16" t="s">
+      <c r="C11" s="13"/>
+      <c r="D11" s="8" t="s">
         <v>2</v>
       </c>
       <c r="E11" s="3" t="s">
@@ -723,200 +723,200 @@
       <c r="W11" s="2"/>
     </row>
     <row r="12" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B12" s="9">
+      <c r="B12" s="12">
         <v>43816</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E12" s="11"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" s="9"/>
     </row>
     <row r="13" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B13" s="9">
+      <c r="B13" s="12">
         <v>43817</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E13" s="11"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" s="9"/>
     </row>
     <row r="14" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B14" s="9">
+      <c r="B14" s="12">
         <v>43818</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E14" s="11"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" s="9"/>
     </row>
     <row r="15" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B15" s="9">
+      <c r="B15" s="12">
         <v>43819</v>
       </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E15" s="11"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" s="9"/>
     </row>
     <row r="16" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B16" s="9">
+      <c r="B16" s="12">
         <v>43822</v>
       </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E16" s="11"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E16" s="9"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="9">
+      <c r="B17" s="12">
         <v>43824</v>
       </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E17" s="11"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E17" s="9"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="9">
+      <c r="B18" s="12">
         <v>43825</v>
       </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E18" s="11"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E18" s="9"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="9">
+      <c r="B19" s="12">
         <v>43826</v>
       </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E19" s="11"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E19" s="9"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="9">
+      <c r="B20" s="12">
         <v>43829</v>
       </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="14" t="s">
+      <c r="C20" s="13"/>
+      <c r="D20" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E20" s="15"/>
+      <c r="E20" s="11"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="9">
+      <c r="B21" s="12">
         <v>43467</v>
       </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E21" s="11"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E21" s="9"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="9">
+      <c r="B22" s="12">
         <v>43468</v>
       </c>
-      <c r="C22" s="10"/>
-      <c r="D22" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E22" s="11"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E22" s="9"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="9">
+      <c r="B23" s="12">
         <v>43471</v>
       </c>
-      <c r="C23" s="10"/>
-      <c r="D23" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E23" s="11"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E23" s="9"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="9">
+      <c r="B24" s="12">
         <v>43472</v>
       </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E24" s="11"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E24" s="9"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="9">
+      <c r="B25" s="12">
         <v>43473</v>
       </c>
-      <c r="C25" s="10"/>
-      <c r="D25" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E25" s="11"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E25" s="9"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="9">
+      <c r="B26" s="12">
         <v>43474</v>
       </c>
-      <c r="C26" s="10"/>
-      <c r="D26" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E26" s="11"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E26" s="9"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="9">
+      <c r="B27" s="12">
         <v>43475</v>
       </c>
-      <c r="C27" s="10"/>
-      <c r="D27" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E27" s="11"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E27" s="9"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="9">
+      <c r="B28" s="12">
         <v>43478</v>
       </c>
-      <c r="C28" s="12"/>
-      <c r="D28" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E28" s="11"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E28" s="9"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="9">
+      <c r="B29" s="12">
         <v>43479</v>
       </c>
-      <c r="C29" s="10"/>
-      <c r="D29" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E29" s="11"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E29" s="9"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="9">
+      <c r="B30" s="12">
         <v>43480</v>
       </c>
-      <c r="C30" s="10"/>
-      <c r="D30" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E30" s="11"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E30" s="9"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="9">
+      <c r="B31" s="12">
         <v>43481</v>
       </c>
-      <c r="C31" s="10"/>
+      <c r="C31" s="13"/>
       <c r="D31" s="6" t="s">
         <v>3</v>
       </c>
@@ -925,50 +925,50 @@
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B32" s="9">
+      <c r="B32" s="12">
         <v>43482</v>
       </c>
-      <c r="C32" s="10"/>
-      <c r="D32" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E32" s="11"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E32" s="9"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B33" s="9">
+      <c r="B33" s="12">
         <v>43485</v>
       </c>
-      <c r="C33" s="10"/>
-      <c r="D33" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E33" s="11"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E33" s="9"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B34" s="9">
+      <c r="B34" s="12">
         <v>43486</v>
       </c>
-      <c r="C34" s="10"/>
-      <c r="D34" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E34" s="11"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E34" s="9"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B35" s="9">
+      <c r="B35" s="12">
         <v>43487</v>
       </c>
-      <c r="C35" s="10"/>
-      <c r="D35" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E35" s="11"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E35" s="9"/>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B36" s="9">
+      <c r="B36" s="12">
         <v>43488</v>
       </c>
-      <c r="C36" s="10"/>
+      <c r="C36" s="13"/>
       <c r="D36" s="3" t="s">
         <v>0</v>
       </c>
@@ -977,73 +977,20 @@
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B48" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="69">
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B29:C29"/>
     <mergeCell ref="B37:C37"/>
     <mergeCell ref="B38:C38"/>
     <mergeCell ref="D37:E37"/>
@@ -1060,6 +1007,59 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D28:E28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Projetvelo/Planning.xlsx
+++ b/Projetvelo/Planning.xlsx
@@ -178,7 +178,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -199,24 +199,6 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -249,6 +231,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -256,49 +253,39 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="16" fontId="8" fillId="4" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="5" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" xfId="6" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="8" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Entrée" xfId="4" builtinId="20"/>
@@ -588,7 +575,7 @@
   <dimension ref="B2:W48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26:C26"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -601,106 +588,106 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B2" s="12">
+      <c r="B2" s="4">
         <v>43802</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="14"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="7"/>
     </row>
     <row r="3" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B3" s="12">
+      <c r="B3" s="4">
         <v>43803</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="9"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="6"/>
     </row>
     <row r="4" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B4" s="12">
+      <c r="B4" s="4">
         <v>43804</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="9"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="6"/>
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B5" s="12">
+      <c r="B5" s="4">
         <v>43805</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" s="9"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="6"/>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B6" s="12">
+      <c r="B6" s="4">
         <v>43808</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="4" t="s">
+      <c r="C6" s="5"/>
+      <c r="D6" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="9" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B7" s="12">
+      <c r="B7" s="4">
         <v>43809</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" s="9"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="6"/>
     </row>
     <row r="8" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B8" s="12">
+      <c r="B8" s="4">
         <v>43810</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8" s="9"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="6"/>
     </row>
     <row r="9" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B9" s="12">
+      <c r="B9" s="4">
         <v>43811</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="E9" s="9"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="6"/>
     </row>
     <row r="10" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B10" s="12">
+      <c r="B10" s="4">
         <v>43812</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="E10" s="9"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="6"/>
     </row>
     <row r="11" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B11" s="12">
+      <c r="B11" s="4">
         <v>43815</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="8" t="s">
+      <c r="C11" s="5"/>
+      <c r="D11" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="9" t="s">
         <v>0</v>
       </c>
       <c r="F11" s="2"/>
@@ -723,274 +710,327 @@
       <c r="W11" s="2"/>
     </row>
     <row r="12" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B12" s="12">
+      <c r="B12" s="4">
         <v>43816</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="E12" s="9"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" s="6"/>
     </row>
     <row r="13" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B13" s="12">
+      <c r="B13" s="4">
         <v>43817</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="E13" s="9"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" s="6"/>
     </row>
     <row r="14" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B14" s="12">
+      <c r="B14" s="4">
         <v>43818</v>
       </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="E14" s="9"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" s="6"/>
     </row>
     <row r="15" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B15" s="12">
+      <c r="B15" s="4">
         <v>43819</v>
       </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="E15" s="9"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" s="6"/>
     </row>
     <row r="16" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B16" s="12">
+      <c r="B16" s="4">
         <v>43822</v>
       </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="E16" s="9"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E16" s="6"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="12">
+      <c r="B17" s="4">
         <v>43824</v>
       </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="E17" s="9"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E17" s="6"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="12">
+      <c r="B18" s="4">
         <v>43825</v>
       </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="E18" s="9"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E18" s="6"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="12">
+      <c r="B19" s="4">
         <v>43826</v>
       </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="E19" s="9"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E19" s="6"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="12">
+      <c r="B20" s="4">
         <v>43829</v>
       </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="10" t="s">
+      <c r="C20" s="5"/>
+      <c r="D20" s="11" t="s">
         <v>1</v>
       </c>
       <c r="E20" s="11"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="12">
+      <c r="B21" s="4">
         <v>43467</v>
       </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="E21" s="9"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E21" s="6"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="12">
+      <c r="B22" s="4">
         <v>43468</v>
       </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="E22" s="9"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E22" s="6"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="12">
+      <c r="B23" s="4">
         <v>43471</v>
       </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="E23" s="9"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E23" s="6"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="12">
+      <c r="B24" s="4">
         <v>43472</v>
       </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="E24" s="9"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E24" s="6"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="12">
+      <c r="B25" s="4">
         <v>43473</v>
       </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="E25" s="9"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E25" s="6"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="12">
+      <c r="B26" s="4">
         <v>43474</v>
       </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="E26" s="9"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E26" s="6"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="12">
+      <c r="B27" s="4">
         <v>43475</v>
       </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="E27" s="9"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E27" s="6"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="12">
+      <c r="B28" s="4">
         <v>43478</v>
       </c>
-      <c r="C28" s="15"/>
-      <c r="D28" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="E28" s="9"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E28" s="6"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="12">
+      <c r="B29" s="4">
         <v>43479</v>
       </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="E29" s="9"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E29" s="6"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="12">
+      <c r="B30" s="4">
         <v>43480</v>
       </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="E30" s="9"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E30" s="6"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="12">
+      <c r="B31" s="4">
         <v>43481</v>
       </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="6" t="s">
+      <c r="C31" s="5"/>
+      <c r="D31" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="E31" s="9" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B32" s="12">
+      <c r="B32" s="4">
         <v>43482</v>
       </c>
-      <c r="C32" s="13"/>
-      <c r="D32" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="E32" s="9"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E32" s="6"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B33" s="12">
+      <c r="B33" s="4">
         <v>43485</v>
       </c>
-      <c r="C33" s="13"/>
-      <c r="D33" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="E33" s="9"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E33" s="6"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B34" s="12">
+      <c r="B34" s="4">
         <v>43486</v>
       </c>
-      <c r="C34" s="13"/>
-      <c r="D34" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="E34" s="9"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E34" s="6"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B35" s="12">
+      <c r="B35" s="4">
         <v>43487</v>
       </c>
-      <c r="C35" s="13"/>
-      <c r="D35" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="E35" s="9"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E35" s="6"/>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B36" s="12">
+      <c r="B36" s="4">
         <v>43488</v>
       </c>
-      <c r="C36" s="13"/>
-      <c r="D36" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E36" s="4" t="s">
+      <c r="C36" s="5"/>
+      <c r="D36" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E36" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B37" s="16"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="16"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B38" s="16"/>
-      <c r="C38" s="16"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B48" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="69">
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
     <mergeCell ref="B37:C37"/>
     <mergeCell ref="B38:C38"/>
     <mergeCell ref="D37:E37"/>
@@ -1007,59 +1047,6 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D28:E28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Projetvelo/Planning.xlsx
+++ b/Projetvelo/Planning.xlsx
@@ -48,7 +48,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,39 +102,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -261,29 +228,29 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="16" fontId="8" fillId="4" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="4" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -575,7 +542,7 @@
   <dimension ref="B2:W48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -588,106 +555,106 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B2" s="4">
+      <c r="B2" s="6">
         <v>43802</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="9"/>
     </row>
     <row r="3" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B3" s="4">
+      <c r="B3" s="6">
         <v>43803</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="6"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="8"/>
     </row>
     <row r="4" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B4" s="4">
+      <c r="B4" s="6">
         <v>43804</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="6"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="8"/>
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B5" s="4">
+      <c r="B5" s="6">
         <v>43805</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" s="6"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="8"/>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B6" s="4">
+      <c r="B6" s="6">
         <v>43808</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="8" t="s">
+      <c r="C6" s="7"/>
+      <c r="D6" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B7" s="4">
+      <c r="B7" s="6">
         <v>43809</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" s="6"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="8"/>
     </row>
     <row r="8" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B8" s="4">
+      <c r="B8" s="6">
         <v>43810</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8" s="6"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="8"/>
     </row>
     <row r="9" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B9" s="4">
+      <c r="B9" s="6">
         <v>43811</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E9" s="6"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="8"/>
     </row>
     <row r="10" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B10" s="4">
+      <c r="B10" s="6">
         <v>43812</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E10" s="6"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="8"/>
     </row>
     <row r="11" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B11" s="4">
+      <c r="B11" s="6">
         <v>43815</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="10" t="s">
+      <c r="C11" s="7"/>
+      <c r="D11" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="5" t="s">
         <v>0</v>
       </c>
       <c r="F11" s="2"/>
@@ -710,256 +677,256 @@
       <c r="W11" s="2"/>
     </row>
     <row r="12" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B12" s="4">
+      <c r="B12" s="6">
         <v>43816</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E12" s="6"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" s="8"/>
     </row>
     <row r="13" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B13" s="4">
+      <c r="B13" s="6">
         <v>43817</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E13" s="6"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" s="8"/>
     </row>
     <row r="14" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B14" s="4">
+      <c r="B14" s="6">
         <v>43818</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E14" s="6"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" s="8"/>
     </row>
     <row r="15" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B15" s="4">
+      <c r="B15" s="6">
         <v>43819</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E15" s="6"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" s="8"/>
     </row>
     <row r="16" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B16" s="4">
+      <c r="B16" s="6">
         <v>43822</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E16" s="6"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E16" s="8"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="4">
+      <c r="B17" s="6">
         <v>43824</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E17" s="6"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E17" s="8"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="4">
+      <c r="B18" s="6">
         <v>43825</v>
       </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E18" s="6"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E18" s="8"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="4">
+      <c r="B19" s="6">
         <v>43826</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E19" s="6"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E19" s="8"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="4">
+      <c r="B20" s="6">
         <v>43829</v>
       </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="11" t="s">
+      <c r="C20" s="7"/>
+      <c r="D20" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="E20" s="11"/>
+      <c r="E20" s="12"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="4">
+      <c r="B21" s="6">
         <v>43467</v>
       </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E21" s="6"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E21" s="8"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="4">
+      <c r="B22" s="6">
         <v>43468</v>
       </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E22" s="6"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E22" s="8"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="4">
+      <c r="B23" s="6">
         <v>43471</v>
       </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E23" s="6"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E23" s="8"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="4">
+      <c r="B24" s="6">
         <v>43472</v>
       </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E24" s="6"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E24" s="8"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="4">
+      <c r="B25" s="6">
         <v>43473</v>
       </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E25" s="6"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E25" s="8"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="4">
+      <c r="B26" s="6">
         <v>43474</v>
       </c>
-      <c r="C26" s="5"/>
-      <c r="D26" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E26" s="6"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E26" s="8"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="4">
+      <c r="B27" s="6">
         <v>43475</v>
       </c>
-      <c r="C27" s="5"/>
-      <c r="D27" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E27" s="6"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E27" s="8"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="4">
+      <c r="B28" s="6">
         <v>43478</v>
       </c>
-      <c r="C28" s="5"/>
-      <c r="D28" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E28" s="6"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E28" s="8"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="4">
+      <c r="B29" s="6">
         <v>43479</v>
       </c>
-      <c r="C29" s="5"/>
-      <c r="D29" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E29" s="6"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E29" s="8"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="4">
+      <c r="B30" s="6">
         <v>43480</v>
       </c>
-      <c r="C30" s="5"/>
-      <c r="D30" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E30" s="6"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E30" s="8"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="4">
+      <c r="B31" s="6">
         <v>43481</v>
       </c>
-      <c r="C31" s="5"/>
-      <c r="D31" s="12" t="s">
+      <c r="C31" s="7"/>
+      <c r="D31" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E31" s="9" t="s">
+      <c r="E31" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B32" s="4">
+      <c r="B32" s="6">
         <v>43482</v>
       </c>
-      <c r="C32" s="5"/>
-      <c r="D32" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E32" s="6"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E32" s="8"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B33" s="4">
+      <c r="B33" s="6">
         <v>43485</v>
       </c>
-      <c r="C33" s="5"/>
-      <c r="D33" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E33" s="6"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E33" s="8"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B34" s="4">
+      <c r="B34" s="6">
         <v>43486</v>
       </c>
-      <c r="C34" s="5"/>
-      <c r="D34" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E34" s="6"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E34" s="8"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B35" s="4">
+      <c r="B35" s="6">
         <v>43487</v>
       </c>
-      <c r="C35" s="5"/>
-      <c r="D35" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E35" s="6"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E35" s="8"/>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B36" s="4">
+      <c r="B36" s="6">
         <v>43488</v>
       </c>
-      <c r="C36" s="5"/>
-      <c r="D36" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="E36" s="8" t="s">
+      <c r="C36" s="7"/>
+      <c r="D36" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E36" s="10" t="s">
         <v>4</v>
       </c>
     </row>
@@ -978,43 +945,22 @@
     </row>
   </sheetData>
   <mergeCells count="69">
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B19:C19"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B17:C17"/>
@@ -1031,22 +977,43 @@
     <mergeCell ref="D32:E32"/>
     <mergeCell ref="D33:E33"/>
     <mergeCell ref="D34:E34"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D28:E28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Projetvelo/Planning.xlsx
+++ b/Projetvelo/Planning.xlsx
@@ -227,13 +227,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="7" fillId="4" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -243,12 +249,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -542,7 +542,7 @@
   <dimension ref="B2:W48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -555,106 +555,106 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B2" s="6">
+      <c r="B2" s="8">
         <v>43802</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="11"/>
     </row>
     <row r="3" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B3" s="6">
+      <c r="B3" s="8">
         <v>43803</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="8"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="10"/>
     </row>
     <row r="4" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B4" s="6">
+      <c r="B4" s="8">
         <v>43804</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="8"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="10"/>
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B5" s="6">
+      <c r="B5" s="8">
         <v>43805</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="10"/>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B6" s="6">
+      <c r="B6" s="8">
         <v>43808</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="10" t="s">
+      <c r="C6" s="9"/>
+      <c r="D6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B7" s="6">
+      <c r="B7" s="8">
         <v>43809</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" s="8"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="10"/>
     </row>
     <row r="8" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B8" s="6">
+      <c r="B8" s="8">
         <v>43810</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8" s="8"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="10"/>
     </row>
     <row r="9" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B9" s="6">
+      <c r="B9" s="8">
         <v>43811</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E9" s="8"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="10"/>
     </row>
     <row r="10" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B10" s="6">
+      <c r="B10" s="8">
         <v>43812</v>
       </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E10" s="8"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="10"/>
     </row>
     <row r="11" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B11" s="6">
+      <c r="B11" s="8">
         <v>43815</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="11" t="s">
+      <c r="C11" s="9"/>
+      <c r="D11" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="4" t="s">
         <v>0</v>
       </c>
       <c r="F11" s="2"/>
@@ -677,274 +677,327 @@
       <c r="W11" s="2"/>
     </row>
     <row r="12" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B12" s="6">
+      <c r="B12" s="8">
         <v>43816</v>
       </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E12" s="8"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" s="10"/>
     </row>
     <row r="13" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B13" s="6">
+      <c r="B13" s="8">
         <v>43817</v>
       </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E13" s="8"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" s="10"/>
     </row>
     <row r="14" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B14" s="6">
+      <c r="B14" s="8">
         <v>43818</v>
       </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E14" s="8"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" s="10"/>
     </row>
     <row r="15" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B15" s="6">
+      <c r="B15" s="8">
         <v>43819</v>
       </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E15" s="8"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" s="10"/>
     </row>
     <row r="16" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B16" s="6">
+      <c r="B16" s="8">
         <v>43822</v>
       </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E16" s="8"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E16" s="10"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="6">
+      <c r="B17" s="8">
         <v>43824</v>
       </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E17" s="8"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E17" s="10"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="6">
+      <c r="B18" s="8">
         <v>43825</v>
       </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E18" s="8"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E18" s="10"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="6">
+      <c r="B19" s="8">
         <v>43826</v>
       </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E19" s="8"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E19" s="10"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="6">
+      <c r="B20" s="8">
         <v>43829</v>
       </c>
-      <c r="C20" s="7"/>
+      <c r="C20" s="9"/>
       <c r="D20" s="12" t="s">
         <v>1</v>
       </c>
       <c r="E20" s="12"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="6">
+      <c r="B21" s="8">
         <v>43467</v>
       </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E21" s="8"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E21" s="10"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="6">
+      <c r="B22" s="8">
         <v>43468</v>
       </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E22" s="8"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E22" s="10"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="6">
+      <c r="B23" s="8">
         <v>43471</v>
       </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E23" s="8"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E23" s="10"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="6">
+      <c r="B24" s="8">
         <v>43472</v>
       </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E24" s="8"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E24" s="10"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="6">
+      <c r="B25" s="8">
         <v>43473</v>
       </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E25" s="8"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E25" s="10"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="6">
+      <c r="B26" s="8">
         <v>43474</v>
       </c>
-      <c r="C26" s="7"/>
-      <c r="D26" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E26" s="8"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E26" s="10"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="6">
+      <c r="B27" s="8">
         <v>43475</v>
       </c>
-      <c r="C27" s="7"/>
-      <c r="D27" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E27" s="8"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E27" s="10"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="6">
+      <c r="B28" s="8">
         <v>43478</v>
       </c>
-      <c r="C28" s="7"/>
-      <c r="D28" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E28" s="8"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E28" s="10"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="6">
+      <c r="B29" s="8">
         <v>43479</v>
       </c>
-      <c r="C29" s="7"/>
-      <c r="D29" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E29" s="8"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E29" s="10"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="6">
+      <c r="B30" s="8">
         <v>43480</v>
       </c>
-      <c r="C30" s="7"/>
-      <c r="D30" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E30" s="8"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E30" s="10"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="6">
+      <c r="B31" s="8">
         <v>43481</v>
       </c>
-      <c r="C31" s="7"/>
-      <c r="D31" s="4" t="s">
+      <c r="C31" s="9"/>
+      <c r="D31" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="E31" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B32" s="6">
+      <c r="B32" s="8">
         <v>43482</v>
       </c>
-      <c r="C32" s="7"/>
-      <c r="D32" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E32" s="8"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E32" s="10"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B33" s="6">
+      <c r="B33" s="8">
         <v>43485</v>
       </c>
-      <c r="C33" s="7"/>
-      <c r="D33" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E33" s="8"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E33" s="10"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B34" s="6">
+      <c r="B34" s="8">
         <v>43486</v>
       </c>
-      <c r="C34" s="7"/>
-      <c r="D34" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E34" s="8"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E34" s="10"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B35" s="6">
+      <c r="B35" s="8">
         <v>43487</v>
       </c>
-      <c r="C35" s="7"/>
-      <c r="D35" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E35" s="8"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E35" s="10"/>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B36" s="6">
+      <c r="B36" s="8">
         <v>43488</v>
       </c>
-      <c r="C36" s="7"/>
-      <c r="D36" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E36" s="10" t="s">
+      <c r="C36" s="9"/>
+      <c r="D36" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E36" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B48" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="69">
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
     <mergeCell ref="B37:C37"/>
     <mergeCell ref="B38:C38"/>
     <mergeCell ref="D37:E37"/>
@@ -961,59 +1014,6 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D28:E28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
